--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -916,28 +916,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>BusinessOfficer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸專員/企金人員</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶識別碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2022/02/17新增欄位 by eric
-原DAT_CU$CUSP.CUSEM1/CUSEM2?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BusinessOfficer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸專員/企金人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶識別碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
+原DAT_CU$CUSP.CUSEM2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1217,23 +1217,23 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1558,10 +1558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="8" t="s">
         <v>121</v>
       </c>
@@ -1573,8 +1573,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1586,12 +1586,12 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>81</v>
@@ -1601,10 +1601,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
@@ -1612,10 +1612,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="15" t="s">
         <v>80</v>
       </c>
@@ -1627,10 +1627,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15" t="s">
         <v>82</v>
       </c>
@@ -1640,10 +1640,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="15" t="s">
         <v>83</v>
       </c>
@@ -1680,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>10</v>
@@ -2917,21 +2917,21 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="35">
+      <c r="D69" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="33">
         <v>6</v>
       </c>
-      <c r="F69" s="36"/>
-      <c r="G69" s="34" t="s">
-        <v>214</v>
+      <c r="F69" s="34"/>
+      <c r="G69" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3049,20 +3049,20 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="35">
+      <c r="D75" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="33">
         <v>3</v>
       </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="34" t="s">
+      <c r="F75" s="34"/>
+      <c r="G75" s="32" t="s">
         <v>213</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\L1-顧客管理作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED162E6F-F976-4AC8-89A2-16EF55E27D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="231">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -940,11 +942,53 @@
 原DAT_CU$CUSP.CUSEM2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>IsLimit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為授信限制對象</t>
+  </si>
+  <si>
+    <t>Y/N
+2022/3/24新增欄位by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRelated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為利害關係人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為準利害關係人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLnrelNear</t>
+  </si>
+  <si>
+    <t>Decimald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/3/24新增欄位by eric</t>
+  </si>
+  <si>
+    <t>IsDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否資訊日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1039,7 +1083,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,6 +1105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,18 +1264,12 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,11 +1278,38 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,6 +1400,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1364,6 +1452,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1539,11 +1644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1558,10 +1663,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="8" t="s">
         <v>121</v>
       </c>
@@ -1573,82 +1678,82 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
@@ -1685,10 +1790,10 @@
       <c r="C9" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="38">
         <v>32</v>
       </c>
       <c r="F9" s="18"/>
@@ -1705,10 +1810,10 @@
       <c r="C10" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="38">
         <v>10</v>
       </c>
       <c r="F10" s="18"/>
@@ -1716,7 +1821,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <f t="shared" ref="A11:A78" si="0">A10+1</f>
+        <f t="shared" ref="A11:A82" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1725,10 +1830,10 @@
       <c r="C11" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="38">
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
@@ -1747,10 +1852,10 @@
       <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="38">
         <v>4</v>
       </c>
       <c r="F12" s="18"/>
@@ -1767,10 +1872,10 @@
       <c r="C13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="38">
         <v>100</v>
       </c>
       <c r="F13" s="18"/>
@@ -1787,10 +1892,10 @@
       <c r="C14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="38">
         <v>8</v>
       </c>
       <c r="F14" s="18"/>
@@ -1807,10 +1912,10 @@
       <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="38">
         <v>1</v>
       </c>
       <c r="F15" s="18"/>
@@ -1829,10 +1934,10 @@
       <c r="C16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="38">
         <v>2</v>
       </c>
       <c r="F16" s="18"/>
@@ -1851,10 +1956,10 @@
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="38">
         <v>6</v>
       </c>
       <c r="F17" s="18"/>
@@ -1873,10 +1978,10 @@
       <c r="C18" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="38">
         <v>2</v>
       </c>
       <c r="F18" s="18"/>
@@ -1895,10 +2000,10 @@
       <c r="C19" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="38">
         <v>2</v>
       </c>
       <c r="F19" s="18"/>
@@ -1917,10 +2022,10 @@
       <c r="C20" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="38">
         <v>10</v>
       </c>
       <c r="F20" s="18"/>
@@ -1937,10 +2042,10 @@
       <c r="C21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="38">
         <v>100</v>
       </c>
       <c r="F21" s="18"/>
@@ -1957,10 +2062,10 @@
       <c r="C22" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="38">
         <v>3</v>
       </c>
       <c r="F22" s="18"/>
@@ -1977,10 +2082,10 @@
       <c r="C23" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="38">
         <v>3</v>
       </c>
       <c r="F23" s="18"/>
@@ -1997,10 +2102,10 @@
       <c r="C24" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="38">
         <v>2</v>
       </c>
       <c r="F24" s="18"/>
@@ -2019,10 +2124,10 @@
       <c r="C25" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="D25" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="38">
         <v>3</v>
       </c>
       <c r="F25" s="18"/>
@@ -2041,10 +2146,10 @@
       <c r="C26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="38">
         <v>40</v>
       </c>
       <c r="F26" s="18"/>
@@ -2061,10 +2166,10 @@
       <c r="C27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D27" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="38">
         <v>5</v>
       </c>
       <c r="F27" s="18"/>
@@ -2081,10 +2186,10 @@
       <c r="C28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="D28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="38">
         <v>5</v>
       </c>
       <c r="F28" s="18"/>
@@ -2101,10 +2206,10 @@
       <c r="C29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="38">
         <v>5</v>
       </c>
       <c r="F29" s="18"/>
@@ -2121,10 +2226,10 @@
       <c r="C30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="18">
+      <c r="D30" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="38">
         <v>5</v>
       </c>
       <c r="F30" s="18"/>
@@ -2141,10 +2246,10 @@
       <c r="C31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="18">
+      <c r="D31" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="38">
         <v>5</v>
       </c>
       <c r="F31" s="18"/>
@@ -2161,10 +2266,10 @@
       <c r="C32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="18">
+      <c r="D32" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="38">
         <v>5</v>
       </c>
       <c r="F32" s="18"/>
@@ -2181,10 +2286,10 @@
       <c r="C33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="18">
+      <c r="D33" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="38">
         <v>5</v>
       </c>
       <c r="F33" s="18"/>
@@ -2201,10 +2306,10 @@
       <c r="C34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="18">
+      <c r="D34" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="38">
         <v>3</v>
       </c>
       <c r="F34" s="18"/>
@@ -2221,10 +2326,10 @@
       <c r="C35" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="18">
+      <c r="D35" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="38">
         <v>3</v>
       </c>
       <c r="F35" s="18"/>
@@ -2241,10 +2346,10 @@
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="18">
+      <c r="D36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="38">
         <v>2</v>
       </c>
       <c r="F36" s="18"/>
@@ -2263,10 +2368,10 @@
       <c r="C37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="18">
+      <c r="D37" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="38">
         <v>3</v>
       </c>
       <c r="F37" s="18"/>
@@ -2285,10 +2390,10 @@
       <c r="C38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="38">
         <v>40</v>
       </c>
       <c r="F38" s="18"/>
@@ -2305,10 +2410,10 @@
       <c r="C39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="18">
+      <c r="D39" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="38">
         <v>5</v>
       </c>
       <c r="F39" s="18"/>
@@ -2325,10 +2430,10 @@
       <c r="C40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="18">
+      <c r="D40" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="38">
         <v>5</v>
       </c>
       <c r="F40" s="18"/>
@@ -2345,10 +2450,10 @@
       <c r="C41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="18">
+      <c r="D41" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="38">
         <v>5</v>
       </c>
       <c r="F41" s="18"/>
@@ -2365,10 +2470,10 @@
       <c r="C42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="18">
+      <c r="D42" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="38">
         <v>5</v>
       </c>
       <c r="F42" s="18"/>
@@ -2385,10 +2490,10 @@
       <c r="C43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="18">
+      <c r="D43" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="38">
         <v>5</v>
       </c>
       <c r="F43" s="18"/>
@@ -2405,10 +2510,10 @@
       <c r="C44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="18">
+      <c r="D44" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="38">
         <v>5</v>
       </c>
       <c r="F44" s="18"/>
@@ -2425,10 +2530,10 @@
       <c r="C45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="18">
+      <c r="D45" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="38">
         <v>5</v>
       </c>
       <c r="F45" s="18"/>
@@ -2445,10 +2550,10 @@
       <c r="C46" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="39">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
@@ -2467,10 +2572,10 @@
       <c r="C47" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="18">
+      <c r="D47" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="38">
         <v>1</v>
       </c>
       <c r="F47" s="18"/>
@@ -2489,10 +2594,10 @@
       <c r="C48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="24">
+      <c r="D48" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="40">
         <v>6</v>
       </c>
       <c r="F48" s="24"/>
@@ -2511,10 +2616,10 @@
       <c r="C49" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="24">
+      <c r="D49" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="40">
         <v>50</v>
       </c>
       <c r="F49" s="24"/>
@@ -2531,10 +2636,10 @@
       <c r="C50" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="24">
+      <c r="D50" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="40">
         <v>1</v>
       </c>
       <c r="F50" s="24"/>
@@ -2553,10 +2658,10 @@
       <c r="C51" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="24">
+      <c r="D51" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="40">
         <v>1</v>
       </c>
       <c r="F51" s="24"/>
@@ -2575,10 +2680,10 @@
       <c r="C52" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="40">
         <v>60</v>
       </c>
       <c r="F52" s="24"/>
@@ -2595,10 +2700,10 @@
       <c r="C53" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="24">
+      <c r="D53" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="40">
         <v>8</v>
       </c>
       <c r="F53" s="24"/>
@@ -2615,10 +2720,10 @@
       <c r="C54" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="24">
+      <c r="D54" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="40">
         <v>16</v>
       </c>
       <c r="F54" s="24"/>
@@ -2635,10 +2740,10 @@
       <c r="C55" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="40">
         <v>20</v>
       </c>
       <c r="F55" s="24"/>
@@ -2655,10 +2760,10 @@
       <c r="C56" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="24">
+      <c r="D56" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="40">
         <v>2</v>
       </c>
       <c r="F56" s="24"/>
@@ -2675,10 +2780,10 @@
       <c r="C57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="40">
         <v>9</v>
       </c>
       <c r="F57" s="24"/>
@@ -2695,10 +2800,10 @@
       <c r="C58" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="24">
+      <c r="D58" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="40">
         <v>6</v>
       </c>
       <c r="F58" s="24"/>
@@ -2717,10 +2822,10 @@
       <c r="C59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="24">
+      <c r="D59" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="40">
         <v>20</v>
       </c>
       <c r="F59" s="24"/>
@@ -2737,10 +2842,10 @@
       <c r="C60" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="24">
+      <c r="D60" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="40">
         <v>3</v>
       </c>
       <c r="F60" s="24"/>
@@ -2757,10 +2862,10 @@
       <c r="C61" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="24">
+      <c r="D61" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="40">
         <v>3</v>
       </c>
       <c r="F61" s="24"/>
@@ -2777,10 +2882,10 @@
       <c r="C62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="38">
         <v>100</v>
       </c>
       <c r="F62" s="18"/>
@@ -2797,10 +2902,10 @@
       <c r="C63" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="40">
         <v>3</v>
       </c>
       <c r="F63" s="24"/>
@@ -2817,10 +2922,10 @@
       <c r="C64" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E64" s="40">
         <v>3</v>
       </c>
       <c r="F64" s="24"/>
@@ -2837,10 +2942,10 @@
       <c r="C65" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E65" s="40">
         <v>1</v>
       </c>
       <c r="F65" s="24"/>
@@ -2859,10 +2964,10 @@
       <c r="C66" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="18">
+      <c r="D66" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="38">
         <v>50</v>
       </c>
       <c r="F66" s="18"/>
@@ -2901,10 +3006,10 @@
       <c r="C68" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="25">
+      <c r="D68" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="39">
         <v>6</v>
       </c>
       <c r="F68" s="29"/>
@@ -2917,20 +3022,20 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="33">
+      <c r="D69" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="41">
         <v>6</v>
       </c>
-      <c r="F69" s="34"/>
-      <c r="G69" s="32" t="s">
+      <c r="F69" s="32"/>
+      <c r="G69" s="31" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2945,10 +3050,10 @@
       <c r="C70" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="25">
+      <c r="D70" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="39">
         <v>1</v>
       </c>
       <c r="F70" s="29"/>
@@ -2967,10 +3072,10 @@
       <c r="C71" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="25">
+      <c r="D71" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="39">
         <v>1</v>
       </c>
       <c r="F71" s="29"/>
@@ -2989,10 +3094,10 @@
       <c r="C72" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="D72" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="39">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
@@ -3000,48 +3105,48 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B73" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E73" s="25">
+      <c r="B73" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="42">
         <v>1</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F73" s="37"/>
+      <c r="G73" s="36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B74" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="30">
+      <c r="B74" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="42">
         <v>1</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="28" t="s">
-        <v>208</v>
+      <c r="F74" s="37"/>
+      <c r="G74" s="36" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3049,21 +3154,21 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="33">
-        <v>3</v>
-      </c>
-      <c r="F75" s="34"/>
-      <c r="G75" s="32" t="s">
-        <v>213</v>
+      <c r="B75" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="42">
+        <v>1</v>
+      </c>
+      <c r="F75" s="37"/>
+      <c r="G75" s="36" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3071,87 +3176,175 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="42">
+        <v>8</v>
+      </c>
+      <c r="F76" s="37"/>
+      <c r="G76" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="39">
+        <v>1</v>
+      </c>
+      <c r="F77" s="29"/>
+      <c r="G77" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="43">
+        <v>1</v>
+      </c>
+      <c r="F78" s="29"/>
+      <c r="G78" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="41">
+        <v>3</v>
+      </c>
+      <c r="F79" s="32"/>
+      <c r="G79" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D80" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="18">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B77" s="18" t="s">
+      <c r="E80" s="38"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="B81" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="18">
+      <c r="D81" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="38">
         <v>6</v>
       </c>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B78" s="18" t="s">
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="18">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C82" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D82" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="18">
-        <f t="shared" ref="A79" si="1">A78+1</f>
-        <v>71</v>
-      </c>
-      <c r="B79" s="18" t="s">
+      <c r="E82" s="38"/>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="18">
+        <f t="shared" ref="A83" si="1">A82+1</f>
+        <v>75</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C83" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="18">
+      <c r="D83" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="26"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D86" s="6" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="26"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D90" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3170,7 +3363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED162E6F-F976-4AC8-89A2-16EF55E27D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305EB1B-1559-4604-A183-187344F593A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305EB1B-1559-4604-A183-187344F593A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C696DF-4CEA-4E56-AFD0-3B1078ABD420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1273,38 +1273,38 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1663,10 +1663,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="8" t="s">
         <v>121</v>
       </c>
@@ -1678,8 +1678,8 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1691,10 +1691,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="8" t="s">
         <v>218</v>
       </c>
@@ -1706,10 +1706,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="10"/>
@@ -1717,10 +1717,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="15" t="s">
         <v>80</v>
       </c>
@@ -1732,10 +1732,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="15" t="s">
         <v>82</v>
       </c>
@@ -1745,10 +1745,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="15" t="s">
         <v>83</v>
       </c>
@@ -1790,10 +1790,10 @@
       <c r="C9" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="36">
         <v>32</v>
       </c>
       <c r="F9" s="18"/>
@@ -1810,10 +1810,10 @@
       <c r="C10" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="D10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="36">
         <v>10</v>
       </c>
       <c r="F10" s="18"/>
@@ -1830,10 +1830,10 @@
       <c r="C11" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
@@ -1852,10 +1852,10 @@
       <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="D12" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="36">
         <v>4</v>
       </c>
       <c r="F12" s="18"/>
@@ -1872,10 +1872,10 @@
       <c r="C13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>100</v>
       </c>
       <c r="F13" s="18"/>
@@ -1892,10 +1892,10 @@
       <c r="C14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>8</v>
       </c>
       <c r="F14" s="18"/>
@@ -1912,10 +1912,10 @@
       <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="D15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="36">
         <v>1</v>
       </c>
       <c r="F15" s="18"/>
@@ -1934,10 +1934,10 @@
       <c r="C16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="D16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="36">
         <v>2</v>
       </c>
       <c r="F16" s="18"/>
@@ -1956,10 +1956,10 @@
       <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="D17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="36">
         <v>6</v>
       </c>
       <c r="F17" s="18"/>
@@ -1978,10 +1978,10 @@
       <c r="C18" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="D18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="36">
         <v>2</v>
       </c>
       <c r="F18" s="18"/>
@@ -2000,10 +2000,10 @@
       <c r="C19" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="D19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="36">
         <v>2</v>
       </c>
       <c r="F19" s="18"/>
@@ -2022,10 +2022,10 @@
       <c r="C20" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="D20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="36">
         <v>10</v>
       </c>
       <c r="F20" s="18"/>
@@ -2042,10 +2042,10 @@
       <c r="C21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="36">
         <v>100</v>
       </c>
       <c r="F21" s="18"/>
@@ -2062,10 +2062,10 @@
       <c r="C22" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="D22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="36">
         <v>3</v>
       </c>
       <c r="F22" s="18"/>
@@ -2082,10 +2082,10 @@
       <c r="C23" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="D23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="36">
         <v>3</v>
       </c>
       <c r="F23" s="18"/>
@@ -2102,10 +2102,10 @@
       <c r="C24" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="36">
         <v>2</v>
       </c>
       <c r="F24" s="18"/>
@@ -2124,10 +2124,10 @@
       <c r="C25" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="D25" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="36">
         <v>3</v>
       </c>
       <c r="F25" s="18"/>
@@ -2146,10 +2146,10 @@
       <c r="C26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="36">
         <v>40</v>
       </c>
       <c r="F26" s="18"/>
@@ -2166,10 +2166,10 @@
       <c r="C27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="D27" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="36">
         <v>5</v>
       </c>
       <c r="F27" s="18"/>
@@ -2186,10 +2186,10 @@
       <c r="C28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="38">
+      <c r="D28" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="36">
         <v>5</v>
       </c>
       <c r="F28" s="18"/>
@@ -2206,10 +2206,10 @@
       <c r="C29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="38">
+      <c r="D29" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="36">
         <v>5</v>
       </c>
       <c r="F29" s="18"/>
@@ -2226,10 +2226,10 @@
       <c r="C30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="38">
+      <c r="D30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="36">
         <v>5</v>
       </c>
       <c r="F30" s="18"/>
@@ -2246,10 +2246,10 @@
       <c r="C31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="38">
+      <c r="D31" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="36">
         <v>5</v>
       </c>
       <c r="F31" s="18"/>
@@ -2266,10 +2266,10 @@
       <c r="C32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="38">
+      <c r="D32" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="36">
         <v>5</v>
       </c>
       <c r="F32" s="18"/>
@@ -2286,10 +2286,10 @@
       <c r="C33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="38">
+      <c r="D33" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="36">
         <v>5</v>
       </c>
       <c r="F33" s="18"/>
@@ -2306,10 +2306,10 @@
       <c r="C34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="38">
+      <c r="D34" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="36">
         <v>3</v>
       </c>
       <c r="F34" s="18"/>
@@ -2326,10 +2326,10 @@
       <c r="C35" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="38">
+      <c r="D35" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="36">
         <v>3</v>
       </c>
       <c r="F35" s="18"/>
@@ -2346,10 +2346,10 @@
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="38">
+      <c r="D36" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="36">
         <v>2</v>
       </c>
       <c r="F36" s="18"/>
@@ -2368,10 +2368,10 @@
       <c r="C37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="38">
+      <c r="D37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="36">
         <v>3</v>
       </c>
       <c r="F37" s="18"/>
@@ -2390,10 +2390,10 @@
       <c r="C38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="36">
         <v>40</v>
       </c>
       <c r="F38" s="18"/>
@@ -2410,10 +2410,10 @@
       <c r="C39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="38">
+      <c r="D39" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="36">
         <v>5</v>
       </c>
       <c r="F39" s="18"/>
@@ -2430,10 +2430,10 @@
       <c r="C40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="38">
+      <c r="D40" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="36">
         <v>5</v>
       </c>
       <c r="F40" s="18"/>
@@ -2450,10 +2450,10 @@
       <c r="C41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="38">
+      <c r="D41" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="36">
         <v>5</v>
       </c>
       <c r="F41" s="18"/>
@@ -2470,10 +2470,10 @@
       <c r="C42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="38">
+      <c r="D42" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="36">
         <v>5</v>
       </c>
       <c r="F42" s="18"/>
@@ -2490,10 +2490,10 @@
       <c r="C43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="38">
+      <c r="D43" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="36">
         <v>5</v>
       </c>
       <c r="F43" s="18"/>
@@ -2510,10 +2510,10 @@
       <c r="C44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="38">
+      <c r="D44" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="36">
         <v>5</v>
       </c>
       <c r="F44" s="18"/>
@@ -2530,10 +2530,10 @@
       <c r="C45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="38">
+      <c r="D45" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="36">
         <v>5</v>
       </c>
       <c r="F45" s="18"/>
@@ -2550,10 +2550,10 @@
       <c r="C46" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="37">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
@@ -2572,10 +2572,10 @@
       <c r="C47" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="38">
+      <c r="D47" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="36">
         <v>1</v>
       </c>
       <c r="F47" s="18"/>
@@ -2594,10 +2594,10 @@
       <c r="C48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="40">
+      <c r="D48" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="38">
         <v>6</v>
       </c>
       <c r="F48" s="24"/>
@@ -2616,10 +2616,10 @@
       <c r="C49" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="40">
+      <c r="D49" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="38">
         <v>50</v>
       </c>
       <c r="F49" s="24"/>
@@ -2636,10 +2636,10 @@
       <c r="C50" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="40">
+      <c r="D50" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="38">
         <v>1</v>
       </c>
       <c r="F50" s="24"/>
@@ -2658,10 +2658,10 @@
       <c r="C51" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="40">
+      <c r="D51" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="38">
         <v>1</v>
       </c>
       <c r="F51" s="24"/>
@@ -2680,10 +2680,10 @@
       <c r="C52" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="38">
         <v>60</v>
       </c>
       <c r="F52" s="24"/>
@@ -2700,10 +2700,10 @@
       <c r="C53" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="40">
+      <c r="D53" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="38">
         <v>8</v>
       </c>
       <c r="F53" s="24"/>
@@ -2720,10 +2720,10 @@
       <c r="C54" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="40">
+      <c r="D54" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="38">
         <v>16</v>
       </c>
       <c r="F54" s="24"/>
@@ -2740,10 +2740,10 @@
       <c r="C55" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="38">
         <v>20</v>
       </c>
       <c r="F55" s="24"/>
@@ -2760,10 +2760,10 @@
       <c r="C56" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="40">
+      <c r="D56" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="38">
         <v>2</v>
       </c>
       <c r="F56" s="24"/>
@@ -2780,10 +2780,10 @@
       <c r="C57" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="38">
         <v>9</v>
       </c>
       <c r="F57" s="24"/>
@@ -2800,10 +2800,10 @@
       <c r="C58" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="40">
+      <c r="D58" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="38">
         <v>6</v>
       </c>
       <c r="F58" s="24"/>
@@ -2822,10 +2822,10 @@
       <c r="C59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="40">
+      <c r="D59" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="38">
         <v>20</v>
       </c>
       <c r="F59" s="24"/>
@@ -2842,10 +2842,10 @@
       <c r="C60" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="40">
+      <c r="D60" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="38">
         <v>3</v>
       </c>
       <c r="F60" s="24"/>
@@ -2862,10 +2862,10 @@
       <c r="C61" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="40">
+      <c r="D61" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="38">
         <v>3</v>
       </c>
       <c r="F61" s="24"/>
@@ -2882,10 +2882,10 @@
       <c r="C62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="36">
         <v>100</v>
       </c>
       <c r="F62" s="18"/>
@@ -2902,10 +2902,10 @@
       <c r="C63" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="38">
         <v>3</v>
       </c>
       <c r="F63" s="24"/>
@@ -2922,10 +2922,10 @@
       <c r="C64" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="38">
         <v>3</v>
       </c>
       <c r="F64" s="24"/>
@@ -2942,10 +2942,10 @@
       <c r="C65" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="38">
         <v>1</v>
       </c>
       <c r="F65" s="24"/>
@@ -2964,10 +2964,10 @@
       <c r="C66" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="38">
+      <c r="D66" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="36">
         <v>50</v>
       </c>
       <c r="F66" s="18"/>
@@ -3006,10 +3006,10 @@
       <c r="C68" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="39">
+      <c r="D68" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="37">
         <v>6</v>
       </c>
       <c r="F68" s="29"/>
@@ -3028,10 +3028,10 @@
       <c r="C69" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="41">
+      <c r="D69" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="39">
         <v>6</v>
       </c>
       <c r="F69" s="32"/>
@@ -3050,10 +3050,10 @@
       <c r="C70" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="39">
+      <c r="D70" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="37">
         <v>1</v>
       </c>
       <c r="F70" s="29"/>
@@ -3072,10 +3072,10 @@
       <c r="C71" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="D71" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="39">
+      <c r="D71" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="37">
         <v>1</v>
       </c>
       <c r="F71" s="29"/>
@@ -3094,10 +3094,10 @@
       <c r="C72" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="39">
+      <c r="D72" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="37">
         <v>1</v>
       </c>
       <c r="F72" s="29"/>
@@ -3110,20 +3110,20 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="42">
+      <c r="D73" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="40">
         <v>1</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="36" t="s">
+      <c r="F73" s="35"/>
+      <c r="G73" s="34" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3132,20 +3132,20 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="42">
+      <c r="D74" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="40">
         <v>1</v>
       </c>
-      <c r="F74" s="37"/>
-      <c r="G74" s="36" t="s">
+      <c r="F74" s="35"/>
+      <c r="G74" s="34" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3154,20 +3154,20 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="42">
+      <c r="D75" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="40">
         <v>1</v>
       </c>
-      <c r="F75" s="37"/>
-      <c r="G75" s="36" t="s">
+      <c r="F75" s="35"/>
+      <c r="G75" s="34" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3176,20 +3176,20 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="40">
         <v>8</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="36" t="s">
+      <c r="F76" s="35"/>
+      <c r="G76" s="34" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3204,10 +3204,10 @@
       <c r="C77" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="E77" s="39">
+      <c r="E77" s="37">
         <v>1</v>
       </c>
       <c r="F77" s="29"/>
@@ -3226,10 +3226,10 @@
       <c r="C78" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="43">
+      <c r="E78" s="41">
         <v>1</v>
       </c>
       <c r="F78" s="29"/>
@@ -3248,10 +3248,10 @@
       <c r="C79" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="41">
+      <c r="D79" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="39">
         <v>3</v>
       </c>
       <c r="F79" s="32"/>
@@ -3270,10 +3270,10 @@
       <c r="C80" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="38"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
     </row>
@@ -3288,10 +3288,10 @@
       <c r="C81" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="38">
+      <c r="D81" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="36">
         <v>6</v>
       </c>
       <c r="F81" s="18"/>
@@ -3308,10 +3308,10 @@
       <c r="C82" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E82" s="38"/>
+      <c r="E82" s="36"/>
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3325,10 +3325,10 @@
       <c r="C83" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="38">
+      <c r="D83" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="36">
         <v>6</v>
       </c>
     </row>
@@ -3343,8 +3343,8 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C696DF-4CEA-4E56-AFD0-3B1078ABD420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBCBCC-EA98-4D4F-9F72-021579F60578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -165,30 +165,6 @@
     <t>SpouseName</t>
   </si>
   <si>
-    <t>戶籍-路名</t>
-  </si>
-  <si>
-    <t>戶籍-段</t>
-  </si>
-  <si>
-    <t>戶籍-巷</t>
-  </si>
-  <si>
-    <t>戶籍-弄</t>
-  </si>
-  <si>
-    <t>戶籍-號</t>
-  </si>
-  <si>
-    <t>戶籍-號之</t>
-  </si>
-  <si>
-    <t>戶籍-樓</t>
-  </si>
-  <si>
-    <t>戶籍-樓之</t>
-  </si>
-  <si>
     <t>通訊-郵遞區號前三碼</t>
   </si>
   <si>
@@ -698,22 +674,6 @@
   </si>
   <si>
     <t>客戶資料主檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍-縣市代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍-鄉鎮市區代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍-郵遞區號前三碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍-郵遞區號後三碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -982,6 +942,54 @@
   </si>
   <si>
     <t>是否資訊日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-郵遞區號前三碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-郵遞區號後三碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-縣市代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-鄉鎮市區代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-路名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-巷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-弄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-號之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-樓之</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1647,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1664,14 +1672,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1681,10 +1689,10 @@
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="14"/>
@@ -1692,14 +1700,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="14"/>
@@ -1718,14 +1726,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="14"/>
@@ -1733,11 +1741,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="10"/>
@@ -1746,11 +1754,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="10"/>
@@ -1759,7 +1767,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
@@ -1785,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>10</v>
@@ -1805,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>10</v>
@@ -1825,20 +1833,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E11" s="36">
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1847,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -1867,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>3</v>
@@ -1893,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E14" s="36">
         <v>8</v>
@@ -1907,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>5</v>
@@ -1920,7 +1928,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -1929,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
@@ -1942,7 +1950,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1951,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1964,7 +1972,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1973,10 +1981,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>10</v>
@@ -1986,7 +1994,7 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1995,10 +2003,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>10</v>
@@ -2008,7 +2016,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2020,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>10</v>
@@ -2057,10 +2065,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>10</v>
@@ -2077,10 +2085,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>10</v>
@@ -2097,10 +2105,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>10</v>
@@ -2110,7 +2118,7 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2119,10 +2127,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>10</v>
@@ -2132,7 +2140,7 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2141,10 +2149,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>19</v>
@@ -2161,10 +2169,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>10</v>
@@ -2181,10 +2189,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>10</v>
@@ -2201,10 +2209,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>10</v>
@@ -2221,10 +2229,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>10</v>
@@ -2241,10 +2249,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>10</v>
@@ -2261,10 +2269,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>10</v>
@@ -2281,10 +2289,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>10</v>
@@ -2301,10 +2309,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>10</v>
@@ -2321,10 +2329,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>10</v>
@@ -2341,10 +2349,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>10</v>
@@ -2354,7 +2362,7 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2363,10 +2371,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>10</v>
@@ -2376,7 +2384,7 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2385,10 +2393,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>19</v>
@@ -2405,10 +2413,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>10</v>
@@ -2425,10 +2433,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>10</v>
@@ -2445,10 +2453,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>10</v>
@@ -2465,10 +2473,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>10</v>
@@ -2485,10 +2493,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>10</v>
@@ -2505,10 +2513,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>10</v>
@@ -2525,10 +2533,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>10</v>
@@ -2545,20 +2553,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E46" s="37">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2567,10 +2575,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>10</v>
@@ -2580,7 +2588,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2589,7 +2597,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>9</v>
@@ -2602,7 +2610,7 @@
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2611,10 +2619,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>10</v>
@@ -2631,10 +2639,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>10</v>
@@ -2644,7 +2652,7 @@
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2653,10 +2661,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>10</v>
@@ -2666,7 +2674,7 @@
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2675,10 +2683,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>19</v>
@@ -2695,10 +2703,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>10</v>
@@ -2715,10 +2723,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>10</v>
@@ -2735,10 +2743,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>19</v>
@@ -2755,10 +2763,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>10</v>
@@ -2775,13 +2783,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E57" s="38">
         <v>9</v>
@@ -2795,10 +2803,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>10</v>
@@ -2808,7 +2816,7 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2817,10 +2825,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>10</v>
@@ -2837,10 +2845,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>10</v>
@@ -2857,10 +2865,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>10</v>
@@ -2877,10 +2885,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>19</v>
@@ -2897,13 +2905,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E63" s="38">
         <v>3</v>
@@ -2917,13 +2925,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E64" s="38">
         <v>3</v>
@@ -2937,20 +2945,20 @@
         <v>57</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E65" s="38">
         <v>1</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2959,10 +2967,10 @@
         <v>58</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>10</v>
@@ -2979,20 +2987,20 @@
         <v>59</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E67" s="23">
         <v>1</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3001,10 +3009,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>10</v>
@@ -3014,7 +3022,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3023,10 +3031,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>10</v>
@@ -3036,7 +3044,7 @@
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="31" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3045,10 +3053,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D70" s="37" t="s">
         <v>10</v>
@@ -3058,7 +3066,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3067,10 +3075,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D71" s="37" t="s">
         <v>10</v>
@@ -3080,7 +3088,7 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3089,10 +3097,10 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>10</v>
@@ -3102,7 +3110,7 @@
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3111,10 +3119,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>10</v>
@@ -3124,7 +3132,7 @@
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="34" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3133,10 +3141,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>10</v>
@@ -3146,7 +3154,7 @@
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="34" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3155,10 +3163,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>10</v>
@@ -3168,7 +3176,7 @@
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="34" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3177,20 +3185,20 @@
         <v>68</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E76" s="40">
         <v>8</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="34" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3199,20 +3207,20 @@
         <v>69</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E77" s="37">
         <v>1</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="28" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
@@ -3221,20 +3229,20 @@
         <v>70</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E78" s="41">
         <v>1</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="28" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3243,10 +3251,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>10</v>
@@ -3256,7 +3264,7 @@
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="31" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3265,13 +3273,13 @@
         <v>72</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E80" s="36"/>
       <c r="F80" s="18"/>
@@ -3283,10 +3291,10 @@
         <v>73</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D81" s="36" t="s">
         <v>10</v>
@@ -3303,13 +3311,13 @@
         <v>74</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E82" s="36"/>
       <c r="F82" s="18"/>
@@ -3320,10 +3328,10 @@
         <v>75</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D83" s="36" t="s">
         <v>10</v>
@@ -3337,7 +3345,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D90" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3392,92 +3400,92 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBCBCC-EA98-4D4F-9F72-021579F60578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299B52C-333C-4CA2-9E14-C6914DEC2C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="232">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -990,6 +990,10 @@
   </si>
   <si>
     <t>戶籍/公司-樓之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-24 可以打中文 所以要改型態為NVARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1653,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1957,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1975,7 +1979,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1997,7 +2001,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2019,7 +2023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2039,7 +2043,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2059,7 +2063,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2079,7 +2083,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2099,7 +2103,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2121,7 +2125,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2143,7 +2147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2163,7 +2167,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2174,16 +2178,19 @@
       <c r="C27" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>10</v>
+      <c r="D27" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E27" s="36">
         <v>5</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2194,16 +2201,19 @@
       <c r="C28" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>10</v>
+      <c r="D28" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E28" s="36">
         <v>5</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2214,16 +2224,19 @@
       <c r="C29" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>10</v>
+      <c r="D29" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E29" s="36">
         <v>5</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2234,16 +2247,19 @@
       <c r="C30" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>10</v>
+      <c r="D30" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E30" s="36">
         <v>5</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2254,16 +2270,19 @@
       <c r="C31" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>10</v>
+      <c r="D31" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E31" s="36">
         <v>5</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2274,16 +2293,19 @@
       <c r="C32" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>10</v>
+      <c r="D32" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="36">
         <v>5</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2294,16 +2316,19 @@
       <c r="C33" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>10</v>
+      <c r="D33" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E33" s="36">
         <v>5</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2323,7 +2348,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2343,7 +2368,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2365,7 +2390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2387,7 +2412,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2407,7 +2432,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2418,16 +2443,19 @@
       <c r="C39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>10</v>
+      <c r="D39" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E39" s="36">
         <v>5</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2438,16 +2466,19 @@
       <c r="C40" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>10</v>
+      <c r="D40" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E40" s="36">
         <v>5</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2458,16 +2489,19 @@
       <c r="C41" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>10</v>
+      <c r="D41" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E41" s="36">
         <v>5</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2478,16 +2512,19 @@
       <c r="C42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="36" t="s">
-        <v>10</v>
+      <c r="D42" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E42" s="36">
         <v>5</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2498,16 +2535,19 @@
       <c r="C43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>10</v>
+      <c r="D43" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E43" s="36">
         <v>5</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2518,16 +2558,19 @@
       <c r="C44" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>10</v>
+      <c r="D44" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E44" s="36">
         <v>5</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2538,16 +2581,19 @@
       <c r="C45" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="36" t="s">
-        <v>10</v>
+      <c r="D45" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="E45" s="36">
         <v>5</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="H45" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2569,7 +2615,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2591,7 +2637,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <f t="shared" si="0"/>
         <v>40</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299B52C-333C-4CA2-9E14-C6914DEC2C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45FCC9D-CFA6-4C40-9C55-E2D29DD16A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -611,9 +611,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EmailAddress</t>
-  </si>
-  <si>
     <t>Key ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -994,6 +991,10 @@
   </si>
   <si>
     <t>2022-08-24 可以打中文 所以要改型態為NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子信箱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1659,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1683,7 +1684,7 @@
         <v>113</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1693,7 +1694,7 @@
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>57</v>
@@ -1708,7 +1709,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>73</v>
@@ -1797,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>10</v>
@@ -1817,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>10</v>
@@ -1840,7 +1841,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>91</v>
@@ -1859,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>18</v>
@@ -1954,7 +1955,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1963,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>7</v>
@@ -1976,7 +1977,7 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1985,10 +1986,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>10</v>
@@ -2007,10 +2008,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>10</v>
@@ -2020,7 +2021,7 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2072,7 +2073,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>10</v>
@@ -2092,7 +2093,7 @@
         <v>77</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>10</v>
@@ -2112,7 +2113,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>10</v>
@@ -2134,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>10</v>
@@ -2156,7 +2157,7 @@
         <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>19</v>
@@ -2176,7 +2177,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>19</v>
@@ -2187,7 +2188,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2199,7 +2200,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>19</v>
@@ -2210,7 +2211,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2222,7 +2223,7 @@
         <v>82</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>19</v>
@@ -2233,7 +2234,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2245,7 +2246,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>19</v>
@@ -2256,7 +2257,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2268,7 +2269,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>19</v>
@@ -2279,7 +2280,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2291,7 +2292,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>19</v>
@@ -2302,7 +2303,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2314,7 +2315,7 @@
         <v>86</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>19</v>
@@ -2325,7 +2326,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2357,7 +2358,7 @@
         <v>95</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>10</v>
@@ -2452,7 +2453,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2475,7 +2476,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2498,7 +2499,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2521,7 +2522,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2544,7 +2545,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2567,7 +2568,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2590,7 +2591,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -2599,20 +2600,20 @@
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E46" s="37">
         <v>1</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
@@ -2624,7 +2625,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>10</v>
@@ -2634,7 +2635,7 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2665,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>34</v>
@@ -2849,10 +2850,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>10</v>
@@ -2862,7 +2863,7 @@
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2994,17 +2995,17 @@
         <v>140</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="38">
         <v>1</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3016,7 +3017,7 @@
         <v>141</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>10</v>
@@ -3033,10 +3034,10 @@
         <v>59</v>
       </c>
       <c r="B67" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>63</v>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3055,10 +3056,10 @@
         <v>60</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>10</v>
@@ -3068,7 +3069,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3077,10 +3078,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>203</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>10</v>
@@ -3090,7 +3091,7 @@
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3099,10 +3100,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="37" t="s">
         <v>10</v>
@@ -3112,7 +3113,7 @@
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3121,10 +3122,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" s="37" t="s">
         <v>10</v>
@@ -3134,7 +3135,7 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3143,10 +3144,10 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>10</v>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3165,10 +3166,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>208</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>209</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>10</v>
@@ -3178,7 +3179,7 @@
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3187,10 +3188,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>212</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>10</v>
@@ -3200,7 +3201,7 @@
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3209,10 +3210,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>10</v>
@@ -3222,7 +3223,7 @@
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3231,20 +3232,20 @@
         <v>68</v>
       </c>
       <c r="B76" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="D76" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E76" s="40">
         <v>8</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3253,20 +3254,20 @@
         <v>69</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E77" s="37">
         <v>1</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
@@ -3275,10 +3276,10 @@
         <v>70</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>91</v>
@@ -3288,7 +3289,7 @@
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3297,10 +3298,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="31" t="s">
         <v>199</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>200</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>10</v>
@@ -3310,7 +3311,7 @@
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3391,7 +3392,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D90" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3465,24 +3466,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3501,7 +3502,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3525,10 +3526,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>139</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45FCC9D-CFA6-4C40-9C55-E2D29DD16A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -817,6 +816,174 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1:自然人
+2:法人
+2021.10.15 by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已完成建檔
+1:未完成建檔
+(2021/08/13上DB)by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:借戶
+1:保證人
+2:擔保品提供人
+3:交易關係人
+4:借款戶關係人
+2021/08/24新增欄位
+(2021/08/25上DB)by eric
+(2021/09/17)新增4. by昱衡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:1STEP TX 
+1/2:2STEP TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/01/07新增欄位(2021/01/14上DB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/02/17新增欄位 by eric
+原DAT_CU$CUSP.CUSSTN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessOfficer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸專員/企金人員</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶識別碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/02/17新增欄位 by eric
+原DAT_CU$CUSP.CUSEM2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLimit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為授信限制對象</t>
+  </si>
+  <si>
+    <t>Y/N
+2022/3/24新增欄位by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRelated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為利害關係人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為準利害關係人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLnrelNear</t>
+  </si>
+  <si>
+    <t>Decimald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/3/24新增欄位by eric</t>
+  </si>
+  <si>
+    <t>IsDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否資訊日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-郵遞區號前三碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-郵遞區號後三碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-縣市代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-鄉鎮市區代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-路名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-巷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-弄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-號之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍/公司-樓之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-24 可以打中文 所以要改型態為NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子信箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>共用代碼檔
 00:一般
 01:員工
@@ -826,182 +993,15 @@
 05:保戶
 06:團體戶
 07:員工二親等
-09:新二階員工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:自然人
-2:法人
-2021.10.15 by eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:已完成建檔
-1:未完成建檔
-(2021/08/13上DB)by eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:借戶
-1:保證人
-2:擔保品提供人
-3:交易關係人
-4:借款戶關係人
-2021/08/24新增欄位
-(2021/08/25上DB)by eric
-(2021/09/17)新增4. by昱衡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:1STEP TX 
-1/2:2STEP TX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021/01/07新增欄位(2021/01/14上DB)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>站別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/02/17新增欄位 by eric
-原DAT_CU$CUSP.CUSSTN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BusinessOfficer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸專員/企金人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶識別碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/02/17新增欄位 by eric
-原DAT_CU$CUSP.CUSEM2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsLimit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否為授信限制對象</t>
-  </si>
-  <si>
-    <t>Y/N
-2022/3/24新增欄位by eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsRelated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否為利害關係人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否為準利害關係人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsLnrelNear</t>
-  </si>
-  <si>
-    <t>Decimald</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/3/24新增欄位by eric</t>
-  </si>
-  <si>
-    <t>IsDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否資訊日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-郵遞區號前三碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-郵遞區號後三碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-縣市代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-鄉鎮市區代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-路名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-巷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-弄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-號之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戶籍/公司-樓之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-08-24 可以打中文 所以要改型態為NVARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子信箱</t>
+09:新二階員工
+10:央行管制戶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1322,7 +1322,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1413,23 +1413,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1465,23 +1448,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1657,11 +1623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1709,7 +1675,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>73</v>
@@ -1798,10 +1764,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>10</v>
@@ -1936,7 +1902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1955,7 +1921,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2073,7 +2039,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>10</v>
@@ -2093,7 +2059,7 @@
         <v>77</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>10</v>
@@ -2113,7 +2079,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>10</v>
@@ -2135,7 +2101,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>10</v>
@@ -2157,7 +2123,7 @@
         <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>19</v>
@@ -2177,7 +2143,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>19</v>
@@ -2188,7 +2154,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2200,7 +2166,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>19</v>
@@ -2211,7 +2177,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2223,7 +2189,7 @@
         <v>82</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>19</v>
@@ -2234,7 +2200,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2246,7 +2212,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>19</v>
@@ -2257,7 +2223,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2269,7 +2235,7 @@
         <v>84</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>19</v>
@@ -2280,7 +2246,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2292,7 +2258,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>19</v>
@@ -2303,7 +2269,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2315,7 +2281,7 @@
         <v>86</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>19</v>
@@ -2326,7 +2292,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2453,7 +2419,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2476,7 +2442,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2499,7 +2465,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2522,7 +2488,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2545,7 +2511,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2568,7 +2534,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2591,7 +2557,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -2613,7 +2579,7 @@
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
@@ -3017,7 +2983,7 @@
         <v>141</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>10</v>
@@ -3047,7 +3013,7 @@
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3069,7 +3035,7 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3078,10 +3044,10 @@
         <v>61</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>202</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>10</v>
@@ -3091,7 +3057,7 @@
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3166,10 +3132,10 @@
         <v>65</v>
       </c>
       <c r="B73" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>207</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>208</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>10</v>
@@ -3179,7 +3145,7 @@
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3188,10 +3154,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>10</v>
@@ -3201,7 +3167,7 @@
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3210,10 +3176,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>10</v>
@@ -3223,7 +3189,7 @@
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3232,20 +3198,20 @@
         <v>68</v>
       </c>
       <c r="B76" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="34" t="s">
-        <v>217</v>
-      </c>
       <c r="D76" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E76" s="40">
         <v>8</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3267,7 +3233,7 @@
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
@@ -3289,7 +3255,7 @@
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3298,10 +3264,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="31" t="s">
         <v>198</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>199</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>10</v>
@@ -3311,7 +3277,7 @@
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3418,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L1-顧客管理作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118A3BB1-7BB1-434F-990E-BA1603D31C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1001,7 +992,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1186,11 +1177,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1199,9 +1190,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,16 +1199,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,9 +1217,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1247,27 +1232,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1299,9 +1275,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,7 +1295,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,9 +1311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1378,9 +1351,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1415,7 +1388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1450,7 +1423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1623,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
@@ -1635,1737 +1608,1737 @@
     <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="D9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="31">
         <v>32</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="36">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="31">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <f t="shared" ref="A11:A82" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="31">
         <v>7</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="D12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="31">
         <v>4</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="31">
         <v>100</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="31">
         <v>8</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="D15" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="31">
         <v>1</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="D16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="31">
         <v>2</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="36">
+      <c r="D17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="31">
         <v>6</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="36">
+      <c r="D18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="31">
         <v>2</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="36">
+      <c r="D19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="31">
         <v>2</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="36">
-        <v>10</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="D20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="31">
+        <v>10</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="31">
         <v>100</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="D22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="31">
         <v>3</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="36">
+      <c r="D23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="31">
         <v>3</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="36">
+      <c r="D24" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="31">
         <v>2</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="36">
+      <c r="D25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="31">
         <v>3</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="31">
         <v>40</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="31">
         <v>5</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="4" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="31">
         <v>5</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="4" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="31">
         <v>5</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="4" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="31">
         <v>5</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="4" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="31">
         <v>5</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="4" t="s">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="31">
         <v>5</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="4" t="s">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="31">
         <v>5</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="4" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="36">
+      <c r="D34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="31">
         <v>3</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="A35" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="36">
+      <c r="D35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="31">
         <v>3</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="36">
+      <c r="D36" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="31">
         <v>2</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="A37" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="36">
+      <c r="D37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="31">
         <v>3</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="31">
         <v>40</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="31">
         <v>5</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="4" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="31">
         <v>5</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="4" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="31">
         <v>5</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="4" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="31">
         <v>5</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="4" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="31">
         <v>5</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="4" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="31">
         <v>5</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="4" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+      <c r="A45" s="16">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="31">
         <v>5</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="4" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+      <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="32">
         <v>1</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25" t="s">
+      <c r="F46" s="21"/>
+      <c r="G46" s="21" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
+      <c r="A47" s="16">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="36">
+      <c r="D47" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="31">
         <v>1</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18" t="s">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
+    <row r="48" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="38">
+      <c r="D48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="31">
         <v>6</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24" t="s">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="38">
+      <c r="D49" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="31">
         <v>50</v>
       </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="38">
+      <c r="D50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="31">
         <v>1</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
+    <row r="51" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="38">
+      <c r="D51" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="31">
         <v>1</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="31">
         <v>60</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="38">
+      <c r="D53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="31">
         <v>8</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="38">
+      <c r="D54" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="31">
         <v>16</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="31">
         <v>20</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="38">
+      <c r="D56" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="31">
         <v>2</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="31">
         <v>9</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="38">
+      <c r="D58" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="31">
         <v>6</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="38">
+      <c r="D59" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="31">
         <v>20</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="38">
+      <c r="D60" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="31">
         <v>3</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-    </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="38">
+      <c r="D61" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="31">
         <v>3</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
+      <c r="A62" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="31">
         <v>100</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18">
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="38">
+      <c r="E63" s="31">
         <v>3</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="31">
         <v>3</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18">
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65" s="31">
         <v>1</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24" t="s">
+      <c r="F65" s="16"/>
+      <c r="G65" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
+      <c r="A66" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D66" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="36">
+      <c r="D66" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="31">
         <v>50</v>
       </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="18">
+      <c r="A67" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="20">
         <v>1</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22" t="s">
+      <c r="F67" s="19"/>
+      <c r="G67" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="18">
+      <c r="A68" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="37">
+      <c r="D68" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="32">
         <v>6</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28" t="s">
+      <c r="F68" s="24"/>
+      <c r="G68" s="23" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18">
+      <c r="A69" s="16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="39">
+      <c r="D69" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="33">
         <v>6</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="31" t="s">
+      <c r="F69" s="27"/>
+      <c r="G69" s="26" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="18">
+      <c r="A70" s="16">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="37">
+      <c r="D70" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="32">
         <v>1</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="28" t="s">
+      <c r="F70" s="24"/>
+      <c r="G70" s="23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="18">
+      <c r="A71" s="16">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="37">
+      <c r="D71" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="32">
         <v>1</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28" t="s">
+      <c r="F71" s="24"/>
+      <c r="G71" s="23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="18">
+      <c r="A72" s="16">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="37">
+      <c r="D72" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="32">
         <v>1</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="28" t="s">
+      <c r="F72" s="24"/>
+      <c r="G72" s="23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
+      <c r="A73" s="16">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D73" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="40">
+      <c r="D73" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="34">
         <v>1</v>
       </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="34" t="s">
+      <c r="F73" s="30"/>
+      <c r="G73" s="29" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="18">
+      <c r="A74" s="16">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D74" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="40">
+      <c r="D74" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="34">
         <v>1</v>
       </c>
-      <c r="F74" s="35"/>
-      <c r="G74" s="34" t="s">
+      <c r="F74" s="30"/>
+      <c r="G74" s="29" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="18">
+      <c r="A75" s="16">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D75" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="40">
+      <c r="D75" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="34">
         <v>1</v>
       </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="34" t="s">
+      <c r="F75" s="30"/>
+      <c r="G75" s="29" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="18">
+      <c r="A76" s="16">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="34">
         <v>8</v>
       </c>
-      <c r="F76" s="35"/>
-      <c r="G76" s="34" t="s">
+      <c r="F76" s="30"/>
+      <c r="G76" s="29" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="18">
+      <c r="A77" s="16">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E77" s="37">
+      <c r="E77" s="32">
         <v>1</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28" t="s">
+      <c r="F77" s="24"/>
+      <c r="G77" s="23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
+      <c r="A78" s="16">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="41">
+      <c r="E78" s="35">
         <v>1</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="28" t="s">
+      <c r="F78" s="24"/>
+      <c r="G78" s="23" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="18">
+      <c r="A79" s="16">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="39">
+      <c r="D79" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="33">
         <v>3</v>
       </c>
-      <c r="F79" s="32"/>
-      <c r="G79" s="31" t="s">
+      <c r="F79" s="27"/>
+      <c r="G79" s="26" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="18">
+      <c r="A80" s="16">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="18">
+      <c r="A81" s="16">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="36">
+      <c r="D81" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="31">
         <v>6</v>
       </c>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="18">
+      <c r="A82" s="16">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="36"/>
-      <c r="F82" s="18"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="18">
+      <c r="A83" s="16">
         <f t="shared" ref="A83" si="1">A82+1</f>
         <v>75</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="36">
+      <c r="D83" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="26"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3384,7 +3357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3401,13 +3374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3497,7 +3470,7 @@
       <c r="B10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="2" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118A3BB1-7BB1-434F-990E-BA1603D31C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5436D452-9D0B-4050-8C44-28B714772B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="客戶別代碼" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="362">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -739,10 +740,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IndustryCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -975,17 +972,428 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-00:一般
-01:員工
-02:首購
-03:關企公司
-04:關企員工
-05:保戶
-06:團體戶
-07:員工二親等
-09:新二階員工
-10:央行管制戶</t>
+    <t>央行管制項目</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定管制代碼依現行央行報送的代碼進行編列，請郁宏跟俞辛確認</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>與eLoan有相同的項目</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一層</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS400代碼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼說明</t>
+  </si>
+  <si>
+    <t>ELOAN代碼</t>
+  </si>
+  <si>
+    <t>選項中文</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上送AS400代碼</t>
+  </si>
+  <si>
+    <t>貸中系統(長度3)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定管制代碼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需填寫</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>首購</t>
+  </si>
+  <si>
+    <t>投資戶(內部規範)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>關企公司</t>
+  </si>
+  <si>
+    <t>自然人第３戶購屋貸款(央行管制)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>S01</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行管制</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>關企員工</t>
+  </si>
+  <si>
+    <t>自然人第4戶以上購屋貸款(央行管制)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>保戶</t>
+  </si>
+  <si>
+    <t>購地貸款(央行管制)</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>團體戶</t>
+  </si>
+  <si>
+    <t>購置高價住宅2戶內(央行管制)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>二等親屬</t>
+  </si>
+  <si>
+    <t>購置高價住宅3戶以上(央行管制)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>受災戶</t>
+  </si>
+  <si>
+    <t>公司法人購置住宅貸款(央行管制)</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新二階員工</t>
+  </si>
+  <si>
+    <t>餘屋貸款(央行管制)</t>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>991231+VIP-</t>
+  </si>
+  <si>
+    <t>工業區閒置土地(央行管制)</t>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永慶房屋</t>
+  </si>
+  <si>
+    <t>自然人第２戶(央行管制)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>固特利契轉</t>
+  </si>
+  <si>
+    <t>增貸管制戶(央行管制)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>信義房屋</t>
+  </si>
+  <si>
+    <t>整合貸</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C04</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>千禧房貸</t>
+  </si>
+  <si>
+    <t>優惠轉貸</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>青年優惠</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>2000億優惠</t>
+  </si>
+  <si>
+    <t>VIP減帳管</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>退休員工</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>菁英專案</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>東方帝國</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>自然人３戶</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>花木釀宅</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>自然人２戶</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>增貸管制件</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>8000億優惠</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>購地貸款</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>自然人４戶</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>優惠重購</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>88風災</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>內規投資戶</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>高價３戶</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>餘屋貸款</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>高價2戶</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>法人購屋</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>工業區閒置</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>客戶別代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/8/21_客戶別調整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +1401,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1086,8 +1497,58 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,18 +1569,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1168,6 +1659,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1177,7 +1720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,68 +1772,137 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1308,6 +1920,149 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6E9632-311F-40B7-8FDC-8B1343926DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="9525"/>
+          <a:ext cx="209550" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECBF485-A59D-4A08-9E78-362C54CB148C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="274320"/>
+          <a:ext cx="209550" cy="179070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1614,11 +2369,11 @@
     <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="7" t="s">
         <v>113</v>
       </c>
@@ -1629,9 +2384,9 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="11" t="s">
         <v>142</v>
       </c>
@@ -1642,13 +2397,13 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>73</v>
@@ -1657,22 +2412,22 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="13" t="s">
         <v>72</v>
       </c>
@@ -1683,11 +2438,11 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="13" t="s">
         <v>74</v>
       </c>
@@ -1696,11 +2451,11 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="13" t="s">
         <v>75</v>
       </c>
@@ -1709,7 +2464,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
@@ -1732,26 +2487,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="17">
         <v>32</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <f>A9+1</f>
         <v>2</v>
@@ -1762,16 +2517,16 @@
       <c r="C10" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <f t="shared" ref="A11:A82" si="0">A10+1</f>
         <v>3</v>
@@ -1782,10 +2537,10 @@
       <c r="C11" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="17">
         <v>7</v>
       </c>
       <c r="F11" s="16"/>
@@ -1793,7 +2548,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1804,16 +2559,16 @@
       <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="17">
         <v>4</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1824,16 +2579,16 @@
       <c r="C13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="17">
         <v>100</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1844,16 +2599,16 @@
       <c r="C14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="17">
         <v>8</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1864,10 +2619,10 @@
       <c r="C15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="17">
         <v>1</v>
       </c>
       <c r="F15" s="16"/>
@@ -1875,7 +2630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1886,15 +2641,18 @@
       <c r="C16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="31">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
-        <v>231</v>
+      <c r="E16" s="49">
+        <v>3</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1903,15 +2661,15 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="17">
         <v>6</v>
       </c>
       <c r="F17" s="16"/>
@@ -1930,10 +2688,10 @@
       <c r="C18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="17">
         <v>2</v>
       </c>
       <c r="F18" s="16"/>
@@ -1949,17 +2707,17 @@
       <c r="B19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="54">
         <v>2</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="53"/>
+      <c r="G19" s="53" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1971,17 +2729,17 @@
       <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="54">
         <v>10</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
@@ -1991,17 +2749,17 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="54">
         <v>100</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
@@ -2011,17 +2769,17 @@
       <c r="B22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="54">
         <v>3</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
@@ -2031,17 +2789,17 @@
       <c r="B23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="54">
         <v>3</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
@@ -2051,17 +2809,17 @@
       <c r="B24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="54">
         <v>2</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="53" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2073,17 +2831,17 @@
       <c r="B25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="54">
         <v>3</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="53"/>
+      <c r="G25" s="53" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2095,17 +2853,17 @@
       <c r="B26" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="54">
         <v>40</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
@@ -2115,19 +2873,19 @@
       <c r="B27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="54">
         <v>5</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2138,19 +2896,19 @@
       <c r="B28" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="54">
         <v>5</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2161,19 +2919,19 @@
       <c r="B29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="54">
         <v>5</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2184,19 +2942,19 @@
       <c r="B30" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="54">
         <v>5</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2207,19 +2965,19 @@
       <c r="B31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="32" t="s">
+      <c r="C31" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="54">
         <v>5</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2230,19 +2988,19 @@
       <c r="B32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="32" t="s">
+      <c r="C32" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="54">
         <v>5</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2253,19 +3011,19 @@
       <c r="B33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="54">
+        <v>5</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="31">
-        <v>5</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2279,10 +3037,10 @@
       <c r="C34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="17">
         <v>3</v>
       </c>
       <c r="F34" s="16"/>
@@ -2299,10 +3057,10 @@
       <c r="C35" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="17">
         <v>3</v>
       </c>
       <c r="F35" s="16"/>
@@ -2319,10 +3077,10 @@
       <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="17">
         <v>2</v>
       </c>
       <c r="F36" s="16"/>
@@ -2341,10 +3099,10 @@
       <c r="C37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="17">
         <v>3</v>
       </c>
       <c r="F37" s="16"/>
@@ -2363,218 +3121,218 @@
       <c r="C38" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="17">
         <v>40</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="A39" s="53">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="54">
         <v>5</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
+      <c r="A40" s="53">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="54">
         <v>5</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
+      <c r="A41" s="53">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="54">
         <v>5</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
+      <c r="A42" s="53">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="54">
         <v>5</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
       <c r="H42" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
+      <c r="A43" s="53">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="54">
         <v>5</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
+      <c r="A44" s="53">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="54">
         <v>5</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
+      <c r="A45" s="53">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="54">
         <v>5</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
       <c r="H45" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+      <c r="A46" s="53">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="32" t="s">
+      <c r="B46" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="32">
+      <c r="C46" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="54">
         <v>1</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21" t="s">
-        <v>192</v>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+      <c r="A47" s="53">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="54">
+        <v>1</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53" t="s">
         <v>181</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="31">
-        <v>1</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2588,10 +3346,10 @@
       <c r="C48" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="17">
         <v>6</v>
       </c>
       <c r="F48" s="16"/>
@@ -2610,10 +3368,10 @@
       <c r="C49" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="17">
         <v>50</v>
       </c>
       <c r="F49" s="16"/>
@@ -2630,10 +3388,10 @@
       <c r="C50" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="17">
         <v>1</v>
       </c>
       <c r="F50" s="16"/>
@@ -2652,10 +3410,10 @@
       <c r="C51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="17">
         <v>1</v>
       </c>
       <c r="F51" s="16"/>
@@ -2674,10 +3432,10 @@
       <c r="C52" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="17">
         <v>60</v>
       </c>
       <c r="F52" s="16"/>
@@ -2694,10 +3452,10 @@
       <c r="C53" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="17">
         <v>8</v>
       </c>
       <c r="F53" s="16"/>
@@ -2714,10 +3472,10 @@
       <c r="C54" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="17">
         <v>16</v>
       </c>
       <c r="F54" s="16"/>
@@ -2734,10 +3492,10 @@
       <c r="C55" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="17">
         <v>20</v>
       </c>
       <c r="F55" s="16"/>
@@ -2754,10 +3512,10 @@
       <c r="C56" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="17">
         <v>2</v>
       </c>
       <c r="F56" s="16"/>
@@ -2774,10 +3532,10 @@
       <c r="C57" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="17">
         <v>9</v>
       </c>
       <c r="F57" s="16"/>
@@ -2789,15 +3547,15 @@
         <v>50</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="17">
         <v>6</v>
       </c>
       <c r="F58" s="16"/>
@@ -2816,10 +3574,10 @@
       <c r="C59" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="17">
         <v>20</v>
       </c>
       <c r="F59" s="16"/>
@@ -2836,10 +3594,10 @@
       <c r="C60" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="17">
         <v>3</v>
       </c>
       <c r="F60" s="16"/>
@@ -2856,10 +3614,10 @@
       <c r="C61" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="17">
         <v>3</v>
       </c>
       <c r="F61" s="16"/>
@@ -2876,10 +3634,10 @@
       <c r="C62" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="17">
         <v>100</v>
       </c>
       <c r="F62" s="16"/>
@@ -2896,10 +3654,10 @@
       <c r="C63" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="17">
         <v>3</v>
       </c>
       <c r="F63" s="16"/>
@@ -2916,10 +3674,10 @@
       <c r="C64" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="17">
         <v>3</v>
       </c>
       <c r="F64" s="16"/>
@@ -2934,362 +3692,362 @@
         <v>140</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="17">
         <v>1</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="53">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="54">
+        <v>50</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+    </row>
+    <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="53">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="57">
+        <v>1</v>
+      </c>
+      <c r="F67" s="58"/>
+      <c r="G67" s="56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="53">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="55" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66" s="31" t="s">
+      <c r="C68" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="31">
-        <v>50</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="20" t="s">
+      <c r="E68" s="54">
+        <v>6</v>
+      </c>
+      <c r="F68" s="58"/>
+      <c r="G68" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="53">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="54">
+        <v>6</v>
+      </c>
+      <c r="F69" s="58"/>
+      <c r="G69" s="56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="53">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="54">
+        <v>1</v>
+      </c>
+      <c r="F70" s="58"/>
+      <c r="G70" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="53">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E67" s="20">
+      <c r="B71" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="54">
         <v>1</v>
       </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="32" t="s">
+      <c r="F71" s="58"/>
+      <c r="G71" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="53">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E72" s="54">
+        <v>1</v>
+      </c>
+      <c r="F72" s="58"/>
+      <c r="G72" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="53">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B73" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="54">
+        <v>1</v>
+      </c>
+      <c r="F73" s="58"/>
+      <c r="G73" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="53">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B74" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="54">
+        <v>1</v>
+      </c>
+      <c r="F74" s="58"/>
+      <c r="G74" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="53">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="54">
+        <v>1</v>
+      </c>
+      <c r="F75" s="58"/>
+      <c r="G75" s="56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="53">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B76" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" s="54">
+        <v>8</v>
+      </c>
+      <c r="F76" s="58"/>
+      <c r="G76" s="56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="53">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="54">
+        <v>1</v>
+      </c>
+      <c r="F77" s="58"/>
+      <c r="G77" s="56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="53">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="59">
+        <v>1</v>
+      </c>
+      <c r="F78" s="58"/>
+      <c r="G78" s="56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="53">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="54">
+        <v>3</v>
+      </c>
+      <c r="F79" s="58"/>
+      <c r="G79" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="53">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="54"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="53">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="54">
         <v>6</v>
       </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="33">
-        <v>6</v>
-      </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="32">
-        <v>1</v>
-      </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="32">
-        <v>1</v>
-      </c>
-      <c r="F71" s="24"/>
-      <c r="G71" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="32">
-        <v>1</v>
-      </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="34">
-        <v>1</v>
-      </c>
-      <c r="F73" s="30"/>
-      <c r="G73" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="34">
-        <v>1</v>
-      </c>
-      <c r="F74" s="30"/>
-      <c r="G74" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="34">
-        <v>1</v>
-      </c>
-      <c r="F75" s="30"/>
-      <c r="G75" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E76" s="34">
-        <v>8</v>
-      </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="32">
-        <v>1</v>
-      </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="35">
-        <v>1</v>
-      </c>
-      <c r="F78" s="24"/>
-      <c r="G78" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="33">
-        <v>3</v>
-      </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="31">
-        <v>6</v>
-      </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
@@ -3302,10 +4060,10 @@
       <c r="C82" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="31"/>
+      <c r="E82" s="17"/>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3319,26 +4077,21 @@
       <c r="C83" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D90" s="5" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3416,7 +4169,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
@@ -3465,10 +4218,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>139</v>
@@ -3479,4 +4232,1075 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A911F2-BF20-4925-9824-6759DED2F722}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="30">
+        <v>2</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="30">
+        <v>13</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
+        <v>3</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="30">
+        <v>5</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35">
+        <v>4</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="30">
+        <v>11</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35">
+        <v>5</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="30">
+        <v>9</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="30">
+        <v>15</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35">
+        <v>7</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="30">
+        <v>14</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35">
+        <v>8</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="30">
+        <v>16</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35">
+        <v>9</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="30">
+        <v>18</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="30">
+        <v>17</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="30">
+        <v>6</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="30">
+        <v>7</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="30">
+        <v>8</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="30">
+        <v>10</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="30">
+        <v>4</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="30">
+        <v>12</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="30">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="32">
+        <v>2</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="32">
+        <v>3</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="32">
+        <v>4</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="47">
+        <v>5</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="32">
+        <v>6</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="32">
+        <v>7</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="32">
+        <v>8</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="32">
+        <v>9</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5436D452-9D0B-4050-8C44-28B714772B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDCA2A0-8C8E-45B4-82CE-3AAC09AE0E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="361">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -249,9 +249,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>custIdLike</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -548,10 +545,6 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1395,6 +1388,9 @@
   <si>
     <t>2023/8/21_客戶別調整</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1874,35 +1870,29 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2354,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2370,53 +2360,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="52"/>
+      <c r="A1" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="58"/>
       <c r="C1" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="52"/>
+      <c r="A3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="58"/>
       <c r="C3" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="9"/>
@@ -2424,27 +2414,27 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="52"/>
+      <c r="A5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="58"/>
       <c r="C5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="52"/>
+      <c r="A6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="58"/>
       <c r="C6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="9"/>
@@ -2452,12 +2442,12 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="52"/>
+      <c r="A7" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="58"/>
       <c r="C7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="9"/>
@@ -2466,7 +2456,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
@@ -2492,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>10</v>
@@ -2512,10 +2502,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>10</v>
@@ -2532,20 +2522,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="17">
         <v>7</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2554,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>18</v>
@@ -2574,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>3</v>
@@ -2600,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="17">
         <v>8</v>
@@ -2614,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>5</v>
@@ -2627,7 +2617,7 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2636,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>6</v>
@@ -2649,10 +2639,10 @@
       </c>
       <c r="F16" s="50"/>
       <c r="G16" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2661,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>7</v>
@@ -2674,7 +2664,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2683,10 +2673,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>10</v>
@@ -2696,7 +2686,7 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -2705,20 +2695,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="17">
         <v>2</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53" t="s">
-        <v>173</v>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -2729,17 +2719,17 @@
       <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="17">
         <v>10</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
@@ -2749,17 +2739,17 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="17">
         <v>100</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
@@ -2767,19 +2757,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="17">
         <v>3</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
@@ -2787,19 +2777,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="17">
         <v>3</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
@@ -2807,20 +2797,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="17">
         <v>2</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53" t="s">
-        <v>134</v>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2829,20 +2819,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="17">
         <v>3</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53" t="s">
-        <v>134</v>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2851,19 +2841,19 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="17">
         <v>40</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
@@ -2871,21 +2861,21 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="D27" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="17">
         <v>5</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2894,21 +2884,21 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="17">
         <v>5</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2917,21 +2907,21 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="17">
         <v>5</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2940,21 +2930,21 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="D30" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="17">
         <v>5</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2963,21 +2953,21 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="17">
         <v>5</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2986,21 +2976,21 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="17">
+        <v>5</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="54">
-        <v>5</v>
-      </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3009,21 +2999,21 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="17">
         <v>5</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3032,7 +3022,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>23</v>
@@ -3052,10 +3042,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>10</v>
@@ -3072,7 +3062,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>24</v>
@@ -3085,7 +3075,7 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3094,7 +3084,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>25</v>
@@ -3107,7 +3097,7 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3116,7 +3106,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>26</v>
@@ -3131,208 +3121,208 @@
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="53">
+      <c r="A39" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="17">
         <v>5</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="53">
+      <c r="A40" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="53" t="s">
+      <c r="B40" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="17">
         <v>5</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="53">
+      <c r="A41" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="53" t="s">
+      <c r="B41" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="17">
         <v>5</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="53">
+      <c r="A42" s="16">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="53" t="s">
+      <c r="B42" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="17">
         <v>5</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="53">
+      <c r="A43" s="16">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="53" t="s">
+      <c r="B43" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="17">
         <v>5</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="53">
+      <c r="A44" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="53" t="s">
+      <c r="B44" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E44" s="17">
         <v>5</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="53">
+      <c r="A45" s="16">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="53" t="s">
+      <c r="B45" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E45" s="17">
         <v>5</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="53">
+      <c r="A46" s="16">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="53" t="s">
+      <c r="B46" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="54">
+      <c r="E46" s="17">
         <v>1</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53" t="s">
-        <v>191</v>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="53">
+      <c r="A47" s="16">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="54" t="s">
+      <c r="B47" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="54">
+      <c r="E47" s="17">
         <v>1</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53" t="s">
-        <v>181</v>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -3341,7 +3331,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>9</v>
@@ -3354,7 +3344,7 @@
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3363,7 +3353,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>34</v>
@@ -3383,7 +3373,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>35</v>
@@ -3396,7 +3386,7 @@
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3405,7 +3395,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>36</v>
@@ -3418,7 +3408,7 @@
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3427,7 +3417,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>37</v>
@@ -3447,7 +3437,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>38</v>
@@ -3467,7 +3457,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>39</v>
@@ -3533,7 +3523,7 @@
         <v>45</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E57" s="17">
         <v>9</v>
@@ -3547,10 +3537,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>10</v>
@@ -3560,7 +3550,7 @@
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3569,7 +3559,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>46</v>
@@ -3649,13 +3639,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E63" s="17">
         <v>3</v>
@@ -3669,13 +3659,13 @@
         <v>56</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E64" s="17">
         <v>3</v>
@@ -3689,365 +3679,365 @@
         <v>57</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E65" s="17">
         <v>1</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="53">
+      <c r="A66" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="17">
+        <v>50</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D66" s="54" t="s">
+      <c r="C67" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="53">
+        <v>1</v>
+      </c>
+      <c r="F67" s="54"/>
+      <c r="G67" s="52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="54">
-        <v>50</v>
-      </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-    </row>
-    <row r="67" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="53">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B67" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="57" t="s">
+      <c r="E68" s="17">
+        <v>6</v>
+      </c>
+      <c r="F68" s="54"/>
+      <c r="G68" s="52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="17">
+        <v>6</v>
+      </c>
+      <c r="F69" s="54"/>
+      <c r="G69" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="16">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="17">
+        <v>1</v>
+      </c>
+      <c r="F70" s="54"/>
+      <c r="G70" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="16">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E67" s="57">
+      <c r="B71" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="17">
         <v>1</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="56" t="s">
+      <c r="F71" s="54"/>
+      <c r="G71" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="17">
+        <v>1</v>
+      </c>
+      <c r="F72" s="54"/>
+      <c r="G72" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="16">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="17">
+        <v>1</v>
+      </c>
+      <c r="F73" s="54"/>
+      <c r="G73" s="52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="16">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="17">
+        <v>1</v>
+      </c>
+      <c r="F74" s="54"/>
+      <c r="G74" s="52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="17">
+        <v>1</v>
+      </c>
+      <c r="F75" s="54"/>
+      <c r="G75" s="52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="16">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="17">
+        <v>8</v>
+      </c>
+      <c r="F76" s="54"/>
+      <c r="G76" s="52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="17">
+        <v>1</v>
+      </c>
+      <c r="F77" s="54"/>
+      <c r="G77" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="55">
+        <v>1</v>
+      </c>
+      <c r="F78" s="54"/>
+      <c r="G78" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="16">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B79" s="51" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="53">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="54" t="s">
+      <c r="C79" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="54">
+      <c r="E79" s="17">
+        <v>3</v>
+      </c>
+      <c r="F79" s="54"/>
+      <c r="G79" s="52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="17">
         <v>6</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="53">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="54">
-        <v>6</v>
-      </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="53">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B70" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="54">
-        <v>1</v>
-      </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="53">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="54">
-        <v>1</v>
-      </c>
-      <c r="F71" s="58"/>
-      <c r="G71" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="53">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B72" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="54">
-        <v>1</v>
-      </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="53">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D73" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="54">
-        <v>1</v>
-      </c>
-      <c r="F73" s="58"/>
-      <c r="G73" s="56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="53">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="54">
-        <v>1</v>
-      </c>
-      <c r="F74" s="58"/>
-      <c r="G74" s="56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="53">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B75" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="54">
-        <v>1</v>
-      </c>
-      <c r="F75" s="58"/>
-      <c r="G75" s="56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="53">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B76" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E76" s="54">
-        <v>8</v>
-      </c>
-      <c r="F76" s="58"/>
-      <c r="G76" s="56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="53">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C77" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="54">
-        <v>1</v>
-      </c>
-      <c r="F77" s="58"/>
-      <c r="G77" s="56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="53">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B78" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C78" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="59">
-        <v>1</v>
-      </c>
-      <c r="F78" s="58"/>
-      <c r="G78" s="56" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="53">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B79" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="54">
-        <v>3</v>
-      </c>
-      <c r="F79" s="58"/>
-      <c r="G79" s="56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="53">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B80" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="54"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="53">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B81" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="54">
-        <v>6</v>
-      </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
@@ -4055,13 +4045,13 @@
         <v>74</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="D82" s="17" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
@@ -4075,7 +4065,7 @@
         <v>53</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>10</v>
@@ -4139,92 +4129,92 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4257,14 +4247,14 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="18"/>
@@ -4272,7 +4262,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -4290,36 +4280,36 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="G4" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="H4" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4327,26 +4317,26 @@
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="30">
         <v>2</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="30">
         <v>0</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H5" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>241</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4354,26 +4344,26 @@
         <v>1</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="30">
         <v>3</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" s="30">
         <v>1</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4381,26 +4371,26 @@
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="30">
         <v>13</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>249</v>
-      </c>
       <c r="H7" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4408,26 +4398,26 @@
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="30">
         <v>5</v>
       </c>
       <c r="E8" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="H8" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="I8" s="34" t="s">
         <v>253</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4435,26 +4425,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="30">
         <v>11</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G9" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="34" t="s">
         <v>253</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4462,26 +4452,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="30">
         <v>9</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>253</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4489,26 +4479,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="30">
         <v>15</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G11" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>253</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4516,23 +4506,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="30">
         <v>14</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I12" s="34"/>
     </row>
@@ -4541,23 +4531,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="30">
         <v>16</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I13" s="34"/>
     </row>
@@ -4566,716 +4556,716 @@
         <v>9</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="30">
         <v>18</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="30">
         <v>17</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="30">
         <v>6</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="30">
         <v>7</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="30">
         <v>8</v>
       </c>
       <c r="E18" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>290</v>
-      </c>
       <c r="H18" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="30">
         <v>10</v>
       </c>
       <c r="E19" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>295</v>
-      </c>
       <c r="H19" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="30">
         <v>4</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="30">
         <v>12</v>
       </c>
       <c r="E21" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>303</v>
-      </c>
       <c r="H21" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="30">
         <v>1</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="34"/>
       <c r="E23" s="41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F23" s="32">
         <v>2</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="34"/>
       <c r="E24" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F24" s="32">
         <v>3</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="34"/>
       <c r="E25" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F25" s="32">
         <v>4</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="45"/>
       <c r="E26" s="46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F26" s="47">
         <v>5</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="34"/>
       <c r="E27" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F27" s="32">
         <v>6</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="34"/>
       <c r="E28" s="41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F28" s="32">
         <v>7</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="34"/>
       <c r="E29" s="41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F29" s="32">
         <v>8</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="34"/>
       <c r="E30" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F30" s="32">
         <v>9</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="34"/>
       <c r="E31" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="34"/>
       <c r="E32" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="48"/>
       <c r="E33" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="48"/>
       <c r="E34" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="48"/>
       <c r="E35" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="48"/>
       <c r="E36" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="48"/>
       <c r="E37" s="41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="48"/>
       <c r="E38" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="48"/>
       <c r="E39" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="48"/>
       <c r="E40" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="48"/>
       <c r="E41" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="48"/>
       <c r="E42" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="43" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="48"/>
       <c r="E43" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I43" s="34"/>
     </row>
@@ -5285,16 +5275,16 @@
       <c r="C44" s="18"/>
       <c r="D44" s="48"/>
       <c r="E44" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I44" s="34"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/CustMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDCA2A0-8C8E-45B4-82CE-3AAC09AE0E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9385A6A-CF0C-4543-9F08-6894B9A33E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="367">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1391,6 +1391,32 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>身份證字號/統一編號錯誤註記</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配偶身份證號/負責人身分證錯誤註記</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustIdErrFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpouseIdErrFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:
+A:舊資料轉換
+B:舊資料轉換</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1716,7 +1742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1893,6 +1919,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2344,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4019,7 +4048,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -4039,7 +4068,7 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -4056,9 +4085,9 @@
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
-        <f t="shared" ref="A83" si="1">A82+1</f>
+        <f t="shared" ref="A83:A85" si="1">A82+1</f>
         <v>75</v>
       </c>
       <c r="B83" s="16" t="s">
@@ -4074,10 +4103,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="50">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="D84" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E84" s="49">
+        <v>1</v>
+      </c>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="H84" s="59">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="50">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="D85" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="49">
+        <v>1</v>
+      </c>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="H85" s="59">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17"/>
